--- a/biology/Zoologie/Crotalus_oreganus/Crotalus_oreganus.xlsx
+++ b/biology/Zoologie/Crotalus_oreganus/Crotalus_oreganus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crotalus oreganus, Le Crotale de l'Ouest[1], est une espèce de serpents de la famille des Viperidae[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crotalus oreganus, Le Crotale de l'Ouest, est une espèce de serpents de la famille des Viperidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre :
 dans le sud-ouest du Canada ;
 aux États-Unis en Californie, dans l’État de Washington et au Montana.
 Sa présence est incertaine dans l'Oregon.
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce serpent venimeux possède une longueur variable, en général un mètre, le record est de 156 cm.
 </t>
@@ -576,9 +592,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (13 février 2014)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (13 février 2014) :
 Crotalus oreganus abyssus Klauber, 1930
 Crotalus oreganus caliginis Klauber, 1949
 Crotalus oreganus concolor Woodbury, 1929
@@ -612,10 +630,12 @@
           <t>Espèce en danger</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est considérée comme en danger au Canada, de par la taille réduite de sa population, sa faible aire de répartition et son éclatement et également parce qu'elle a un rythme de reproduction assez bas[1].
-Au niveau mondial toutefois cette espèce n'est pas considéré comme en danger par l'UICN[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est considérée comme en danger au Canada, de par la taille réduite de sa population, sa faible aire de répartition et son éclatement et également parce qu'elle a un rythme de reproduction assez bas.
+Au niveau mondial toutefois cette espèce n'est pas considéré comme en danger par l'UICN.
 </t>
         </is>
       </c>
@@ -644,7 +664,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Holbrook, 1840 : Descriptions of new genera and species of North American Frogs. North American herpetology, or, A description of the reptiles inhabiting the United States, vol. 4, p. 1–126 (texte intégral).
 Klauber, 1930 : New and renamed subspecies of Crotalus confluentus Say, with remarks on related species. Transactions of the San Diego Society of Natural History, vol. 6, no 3, p. 95-144 (texte intégral).
